--- a/burndown chart.xlsx
+++ b/burndown chart.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allen\Documents\IFB299\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n9476547\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t xml:space="preserve">splint 1 </t>
   </si>
@@ -37,12 +39,6 @@
   </si>
   <si>
     <t xml:space="preserve">4 weeks </t>
-  </si>
-  <si>
-    <t xml:space="preserve">expected </t>
-  </si>
-  <si>
-    <t xml:space="preserve">actual </t>
   </si>
   <si>
     <t>days</t>
@@ -56,11 +52,35 @@
   <si>
     <t xml:space="preserve">story point expected  </t>
   </si>
+  <si>
+    <t xml:space="preserve">actual amount of work remaining </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideal amount of work remaining  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">release burndown chart </t>
+  </si>
+  <si>
+    <t>story points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total </t>
+  </si>
+  <si>
+    <t>Time (days)</t>
+  </si>
+  <si>
+    <t>splint</t>
+  </si>
+  <si>
+    <t>story point</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,11 +164,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU"/>
-              <a:t>Burndown chart</a:t>
+              <a:t>Burndown chart sprint</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -193,7 +219,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>expected </c:v>
+                  <c:v>Ideal amount of work remaining  </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -382,7 +408,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>actual </c:v>
+                  <c:v>actual amount of work remaining </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -490,10 +516,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6</c:v>
@@ -712,16 +738,17 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-AU"/>
-                  <a:t>Story</a:t>
+                  <a:t>Work</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-AU" baseline="0"/>
-                  <a:t> Points</a:t>
+                  <a:t> remaining (Hours)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-AU"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -806,10 +833,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.61179111986001755"/>
-          <c:y val="0.34517000715819612"/>
-          <c:w val="0.35975087489063873"/>
-          <c:h val="6.3920901932712965E-2"/>
+          <c:x val="0.50901334208223969"/>
+          <c:y val="0.2180822168470771"/>
+          <c:w val="0.46252865266841647"/>
+          <c:h val="0.24184378913420138"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -917,12 +944,1863 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> chart sprint 2 </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal amount of work remaining  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet6!$A$5:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$E$5:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37CF-42BF-B82C-C9D07B834EF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>actual amount of work remaining </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet6!$A$5:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$F$5:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-37CF-42BF-B82C-C9D07B834EF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="333879792"/>
+        <c:axId val="333880120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="333879792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> (days)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="333880120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="333880120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Work remaining (Hours)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="333879792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.57777777777777772"/>
+          <c:y val="0.1533559346748323"/>
+          <c:w val="0.3888888888888889"/>
+          <c:h val="0.33738480606590837"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Release</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> burndown chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>story point</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet7!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet7!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7ACF-41E1-8FE9-33D8C63D072F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="333285296"/>
+        <c:axId val="333286280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="333285296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Sprints</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="333286280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="333286280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Story</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Points</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="333285296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>story point expected  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-36C8-4A79-8826-5EE14AB5D3FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>story point done</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$C$2:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-36C8-4A79-8826-5EE14AB5D3FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="379641248"/>
+        <c:axId val="379641576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="379641248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379641576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="379641576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379641248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Burndown</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
               <a:t> Chart</a:t>
             </a:r>
             <a:endParaRPr lang="en-AU"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1301,6 +3179,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1367,7 +3246,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1886,7 +3765,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2435,7 +4314,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2965,621 +4844,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="379660928"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet5!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>story point expected  </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet5!$A$2:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet5!$B$2:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>39.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>46.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>50.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>57.6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>61.2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>64.8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>68.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-36C8-4A79-8826-5EE14AB5D3FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet5!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>story point done</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet5!$A$2:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet5!$C$2:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-36C8-4A79-8826-5EE14AB5D3FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="379641248"/>
-        <c:axId val="379641576"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="379641248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="379641576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="379641576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="379641248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3899,6 +5163,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6480,6 +7824,1038 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7040,6 +9416,117 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01278F64-06D4-40CF-BADC-02ACE33B0265}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -7077,7 +9564,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7154,7 +9641,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7175,47 +9662,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD5969CF-270E-4F39-9B3F-7ECCBF2A930F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01278F64-06D4-40CF-BADC-02ACE33B0265}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7532,42 +9978,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
@@ -7575,10 +10021,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>19</v>
       </c>
@@ -7586,10 +10032,10 @@
         <v>3.6</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>18</v>
       </c>
@@ -7600,7 +10046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>17</v>
       </c>
@@ -7611,7 +10057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
@@ -7622,7 +10068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>15</v>
       </c>
@@ -7633,7 +10079,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>14</v>
       </c>
@@ -7644,7 +10090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>13</v>
       </c>
@@ -7655,7 +10101,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7666,7 +10112,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -7677,7 +10123,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -7688,7 +10134,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -7699,7 +10145,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -7710,7 +10156,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7</v>
       </c>
@@ -7721,7 +10167,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6</v>
       </c>
@@ -7732,7 +10178,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -7743,7 +10189,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -7754,7 +10200,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -7765,7 +10211,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -7776,7 +10222,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -7787,7 +10233,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -7805,94 +10251,400 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2C5C38-B04A-495A-A769-28368809035D}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>41.8</v>
+      </c>
+      <c r="C6">
+        <v>44</v>
+      </c>
+      <c r="E6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>39.6</v>
+      </c>
+      <c r="C7">
+        <v>43</v>
+      </c>
+      <c r="E7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>37.4</v>
+      </c>
+      <c r="C8">
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <v>6.6</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>30.8</v>
+      </c>
+      <c r="C11">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>13.2</v>
+      </c>
+      <c r="F11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>28.6</v>
+      </c>
+      <c r="C12">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>15.4</v>
+      </c>
+      <c r="F12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>26.4</v>
+      </c>
+      <c r="C13">
+        <v>33</v>
+      </c>
+      <c r="E13">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>24.2</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>19.8</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>19.8</v>
+      </c>
+      <c r="C16">
+        <v>29</v>
+      </c>
+      <c r="E16">
+        <v>24.2</v>
+      </c>
+      <c r="F16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C17">
+        <v>29</v>
+      </c>
+      <c r="E17">
+        <v>26.4</v>
+      </c>
+      <c r="F17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>15.4</v>
+      </c>
+      <c r="C18">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>28.6</v>
+      </c>
+      <c r="F18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
+      <c r="B19">
+        <v>13.2</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>30.8</v>
+      </c>
+      <c r="F19">
+        <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>54</v>
-      </c>
-      <c r="C2">
-        <v>68</v>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>33</v>
+      </c>
+      <c r="F20">
+        <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>57.6</v>
-      </c>
-      <c r="C3">
-        <v>68</v>
+      <c r="B21">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="F21">
+        <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>61.2</v>
-      </c>
-      <c r="C4">
-        <v>69</v>
+      <c r="B22">
+        <v>6.6</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>37.4</v>
+      </c>
+      <c r="F22">
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>64.8</v>
-      </c>
-      <c r="C5">
-        <v>71</v>
+      <c r="B23">
+        <v>4.3999999999999</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>39.6</v>
+      </c>
+      <c r="F23">
+        <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>1</v>
       </c>
-      <c r="B6">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="C6">
-        <v>72</v>
+      <c r="B24">
+        <v>2.1999999999998998</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>41.8</v>
+      </c>
+      <c r="F24">
+        <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>0</v>
       </c>
-      <c r="B7">
-        <v>72</v>
-      </c>
-      <c r="C7">
-        <v>72</v>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>44</v>
+      </c>
+      <c r="F25">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -7902,145 +10654,79 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF12C79-FDD5-4125-9A40-4F776F145B51}">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>36</v>
-      </c>
-      <c r="C2">
-        <v>42</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>39.6</v>
-      </c>
-      <c r="C3">
-        <v>48</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>43.2</v>
-      </c>
-      <c r="C4">
-        <v>56</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>46.8</v>
-      </c>
-      <c r="C5">
-        <v>60</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>50.4</v>
-      </c>
-      <c r="C6">
-        <v>64</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>54</v>
-      </c>
-      <c r="C7">
-        <v>68</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>57.6</v>
-      </c>
-      <c r="C8">
-        <v>68</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>61.2</v>
-      </c>
-      <c r="C9">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>2</v>
       </c>
-      <c r="B10">
-        <v>64.8</v>
-      </c>
-      <c r="C10">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
-      </c>
       <c r="B11">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="C11">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
         <v>0</v>
-      </c>
-      <c r="B12">
-        <v>72</v>
-      </c>
-      <c r="C12">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -8050,199 +10736,232 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D71672-F716-4428-AA1C-D80998EC2DE1}">
-  <dimension ref="A2:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C19"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>7.2</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>10.8</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>14.4</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>21.6</v>
+      </c>
+      <c r="C6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>25.2</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>28.8</v>
+      </c>
+      <c r="C8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>32.4</v>
+      </c>
+      <c r="C9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>39.6</v>
+      </c>
+      <c r="C11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B12">
+        <v>43.2</v>
+      </c>
+      <c r="C12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>7</v>
       </c>
+      <c r="B13">
+        <v>46.8</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>19</v>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>50.4</v>
+      </c>
+      <c r="C14">
+        <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>21.6</v>
-      </c>
-      <c r="C4">
-        <v>26</v>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>54</v>
+      </c>
+      <c r="C15">
+        <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>25.2</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>57.6</v>
+      </c>
+      <c r="C16">
+        <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>28.8</v>
-      </c>
-      <c r="C6">
-        <v>34</v>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>61.2</v>
+      </c>
+      <c r="C17">
+        <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>32.4</v>
-      </c>
-      <c r="C7">
-        <v>36</v>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>64.8</v>
+      </c>
+      <c r="C18">
+        <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>36</v>
-      </c>
-      <c r="C8">
-        <v>42</v>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="C19">
+        <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>39.6</v>
-      </c>
-      <c r="C9">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>43.2</v>
-      </c>
-      <c r="C10">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>46.8</v>
-      </c>
-      <c r="C11">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>50.4</v>
-      </c>
-      <c r="C12">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>54</v>
-      </c>
-      <c r="C13">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>57.6</v>
-      </c>
-      <c r="C14">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>61.2</v>
-      </c>
-      <c r="C15">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>64.8</v>
-      </c>
-      <c r="C16">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="C17">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>72</v>
-      </c>
-      <c r="C18">
+      <c r="C20">
         <v>72</v>
       </c>
     </row>
@@ -8253,232 +10972,444 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C894B576-F907-454D-A7C1-F78AC4BD6E9E}">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C20"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>54</v>
+      </c>
+      <c r="C2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>57.6</v>
+      </c>
+      <c r="C3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>61.2</v>
+      </c>
+      <c r="C4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>64.8</v>
+      </c>
+      <c r="C5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="C6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>72</v>
+      </c>
+      <c r="C7">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+      <c r="C2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>39.6</v>
+      </c>
+      <c r="C3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B4">
+        <v>43.2</v>
+      </c>
+      <c r="C4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>7</v>
       </c>
+      <c r="B5">
+        <v>46.8</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>50.4</v>
+      </c>
+      <c r="C6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>57.6</v>
+      </c>
+      <c r="C8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>61.2</v>
+      </c>
+      <c r="C9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>64.8</v>
+      </c>
+      <c r="C10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="C11">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>72</v>
+      </c>
+      <c r="C12">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
         <v>18</v>
       </c>
-      <c r="B2">
-        <v>7.2</v>
-      </c>
-      <c r="C2">
+      <c r="C3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>21.6</v>
+      </c>
+      <c r="C4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>25.2</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>28.8</v>
+      </c>
+      <c r="C6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>32.4</v>
+      </c>
+      <c r="C7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>39.6</v>
+      </c>
+      <c r="C9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>43.2</v>
+      </c>
+      <c r="C10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>46.8</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>6</v>
       </c>
+      <c r="B12">
+        <v>50.4</v>
+      </c>
+      <c r="C12">
+        <v>64</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>10.8</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>54</v>
+      </c>
+      <c r="C13">
+        <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>14.4</v>
-      </c>
-      <c r="C4">
-        <v>14</v>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>57.6</v>
+      </c>
+      <c r="C14">
+        <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>19</v>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>61.2</v>
+      </c>
+      <c r="C15">
+        <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>21.6</v>
-      </c>
-      <c r="C6">
-        <v>26</v>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>64.8</v>
+      </c>
+      <c r="C16">
+        <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>25.2</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="C17">
+        <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>28.8</v>
-      </c>
-      <c r="C8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>32.4</v>
-      </c>
-      <c r="C9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>36</v>
-      </c>
-      <c r="C10">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>39.6</v>
-      </c>
-      <c r="C11">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>43.2</v>
-      </c>
-      <c r="C12">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>46.8</v>
-      </c>
-      <c r="C13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>50.4</v>
-      </c>
-      <c r="C14">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>54</v>
-      </c>
-      <c r="C15">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>57.6</v>
-      </c>
-      <c r="C16">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>61.2</v>
-      </c>
-      <c r="C17">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B18">
-        <v>64.8</v>
+        <v>72</v>
       </c>
       <c r="C18">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="C19">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>72</v>
-      </c>
-      <c r="C20">
         <v>72</v>
       </c>
     </row>
